--- a/medicine/Sexualité et sexologie/La_Société/La_Société.xlsx
+++ b/medicine/Sexualité et sexologie/La_Société/La_Société.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Société est une décalogie originale créée par Angela Behelle en 2012. Ce titre se réfère au fil rouge de la série, à savoir la formation, l’organisation et la dérive d’une société secrète se ramifiant autour d'un réseau de services sexuels imaginé par de richissimes contributeurs aux seules fins de leurs propres plaisirs.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mickaëlla Valmur, veuve effacée âgée de 27 ans, est à la tête d’une immense fortune. Bien que richissime à son très jeune âge, elle décide de conserver son poste de professeure de philosophie dans un établissement privé réservé à la classe privilégiée.
 Elle est notamment priée, avec insistance, de s’occuper en particulier d’un nouvel élève au caractère apparemment singulier.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,12 +566,14 @@
           <t>Inspiration et polémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, Angela Behelle prend connaissance d’un article de presse au titre pour le moins troublant[1]. Ce papier du Nouvel Observateur, « On attend M. le Ministre », décrit en effet une société bourgeoise, parisienne, cultivée et de classe aisée, s’adonnant aux plaisirs libertins sans retenue et cultivant l’entre-soi en n’ayant nul souci du rang ou de l’influence de ses membres.
-Bien avant que l’actualité politique française ne soit bouleversée par son premier scandale politico-sexuel d'ampleur, bientôt connu sous le nom de l’affaire Dominique Strauss-Kahn, l’auteure avait terminé l’écriture de sa série[2] et la polémique surgit à un tout autre niveau. En effet, à la parution du premier opus, en juin 2012, le succès incontestable de la série littéraire britannique Cinquante nuances de Grey[3] n’a pas encore déferlé sur la France (le premier épisode ne paraîtra qu’en octobre 2012) et la littérature érotique n’a pas encore connu son profond renouvellement de lectorat[4].
-D’abord indignée par l’âge prétendu du protagoniste, puis par la description réaliste de certaines pratiques sexuelles, une partie des lecteurs décrit l’œuvre comme étant du sexe « sale, vulgaire, cru et violent », là où d’autres y voient davantage un véritable suspense érotique palpitant[5].
-Le succès remarqué de cette série française doit donc beaucoup à la réussite de la littérature érotique anglo-saxonne remise au goût du jour en 2012[4] et, un peu paradoxalement, au fait que toute l’action de La Société se déroule en France.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, Angela Behelle prend connaissance d’un article de presse au titre pour le moins troublant. Ce papier du Nouvel Observateur, « On attend M. le Ministre », décrit en effet une société bourgeoise, parisienne, cultivée et de classe aisée, s’adonnant aux plaisirs libertins sans retenue et cultivant l’entre-soi en n’ayant nul souci du rang ou de l’influence de ses membres.
+Bien avant que l’actualité politique française ne soit bouleversée par son premier scandale politico-sexuel d'ampleur, bientôt connu sous le nom de l’affaire Dominique Strauss-Kahn, l’auteure avait terminé l’écriture de sa série et la polémique surgit à un tout autre niveau. En effet, à la parution du premier opus, en juin 2012, le succès incontestable de la série littéraire britannique Cinquante nuances de Grey n’a pas encore déferlé sur la France (le premier épisode ne paraîtra qu’en octobre 2012) et la littérature érotique n’a pas encore connu son profond renouvellement de lectorat.
+D’abord indignée par l’âge prétendu du protagoniste, puis par la description réaliste de certaines pratiques sexuelles, une partie des lecteurs décrit l’œuvre comme étant du sexe « sale, vulgaire, cru et violent », là où d’autres y voient davantage un véritable suspense érotique palpitant.
+Le succès remarqué de cette série française doit donc beaucoup à la réussite de la littérature érotique anglo-saxonne remise au goût du jour en 2012 et, un peu paradoxalement, au fait que toute l’action de La Société se déroule en France.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Suite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Après 'Qui de nous deux ?, Paris, J'ai lu, coll. « Librio », 2014  (ISBN 978-2290075999), neuf ouvrages complètent la saga :
 Mission Azerty, Paris, J'ai lu, coll. « Librio », 2014  (ISBN 978-2290077047), se déroulant dans le milieu de l'édition et au cœur de l'organisation de La Société avec l'influent Paul Peyriac, un éditeur à la retraite aussi machiavélique que touchant, qui rencontre la jeune et séduisante Mina.
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,13 +643,15 @@
           <t>Anecdotes sur la série</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angela Behelle a donné le nom d’un grand cru de Chablis au créateur de La Société, Henri Valmur[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angela Behelle a donné le nom d’un grand cru de Chablis au créateur de La Société, Henri Valmur.
 Le nom d'Alexis Duivel se réfère à la traduction flamande du patronyme : le Diable.
-L’auteure distingue les tomes impairs, à l’érotisme plus piquant, des tomes pairs qui contribuent à la découverte des méandres du réseau de services[6].
-Le symbole de l’Oméga est présent sur chaque couverture des différents tomes de la série et des spin-offs[7].
-De nombreuses rumeurs ont couru sur d’éventuelles traductions ou adaptations, mais aucune ne s’est concrétisée à ce jour[8],[9].
+L’auteure distingue les tomes impairs, à l’érotisme plus piquant, des tomes pairs qui contribuent à la découverte des méandres du réseau de services.
+Le symbole de l’Oméga est présent sur chaque couverture des différents tomes de la série et des spin-offs.
+De nombreuses rumeurs ont couru sur d’éventuelles traductions ou adaptations, mais aucune ne s’est concrétisée à ce jour,.
 Cette série n’est pas le seul essai de l’auteure sur le rapport complexe et souvent irrépressible qu’entretiennent les hommes d’influence et la sexualité polymorphe. Au Bonheur de ces Dames, roman paru en 2015 aux éditions Blanche, poursuit l’examen de la conscience politique sous les traits d’un jeune puceau ignorant encore l’avenir brillant auquel il est promis. Sa maîtresse spirituelle prend la forme cette fois d’une bibliothécaire voluptueuse bien résolue à révéler tout le potentiel de cet homme en devenir.
 </t>
         </is>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,9 +681,11 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste éloquente est non exhaustive[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste éloquente est non exhaustive :
 Mickaëlla Valmur, 27 ans, professeur de philosophie au lycée Saint-Haymard, veuve d'Henri Valmur
 Henri Valmur, 64 ans, philosophe, écrivain, décédé deux mois avant le début du récit
 Samuel Forgeat, 35 ans, professeur de mathématiques au lycée Saint-Haymard
@@ -714,7 +736,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,9 +754,11 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cette création est l’une des premières séries érotiques numériques à paraître directement aux éditions J'ai lu en version livre de poche[11],[12].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette création est l’une des premières séries érotiques numériques à paraître directement aux éditions J'ai lu en version livre de poche,.
 Qui de nous deux ?, Paris, J'ai lu, coll. « Librio », 2013  (ISBN 978-2290075999)
 Mission Azerty, Paris, J'ai lu, coll. « Librio », 2014  (ISBN 978-2290077047)
 À votre service, Paris, J'ai lu, coll. « Librio », 2014  (ISBN 978-2290077054)
@@ -754,7 +778,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -772,9 +796,11 @@
           <t>Spin-offs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>En 2017, les éditions Pygmalion publient le premier spin-off de la série, L'Enjeu[13]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 2017, les éditions Pygmalion publient le premier spin-off de la série, L'Enjeu
 L'enjeu, Paris, Flammarion-éditions Pygmalion, coll. « Romans », 2017  (ISBN 978-2756418902).
 Lucrèce Club, Paris, Flammarion-éditions Pygmalion, coll. « Romans », 2019  (ISBN 978-2756422213)</t>
         </is>
@@ -786,7 +812,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>La_Soci%C3%A9t%C3%A9</t>
+          <t>La_Société</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -804,7 +830,9 @@
           <t>Nouvelles</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>L'Alpha de l'Oméga, Paris, J'ai lu, coll. « Best », 2018
 Un conte d'auteurs, Paris, J'ai lu, coll. « Littérature érotique », 2019
